--- a/biology/Botanique/Poire_Sénateur_Vaïsse/Poire_Sénateur_Vaïsse.xlsx
+++ b/biology/Botanique/Poire_Sénateur_Vaïsse/Poire_Sénateur_Vaïsse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Poire_S%C3%A9nateur_Va%C3%AFsse</t>
+          <t>Poire_Sénateur_Vaïsse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Sénateur Vaïsse est une variété de poire, rare et ancienne.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Poire_S%C3%A9nateur_Va%C3%AFsse</t>
+          <t>Poire_Sénateur_Vaïsse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Sénateur Vaïsse.
 Vaïsse.</t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Poire_S%C3%A9nateur_Va%C3%AFsse</t>
+          <t>Poire_Sénateur_Vaïsse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette poire est créée en 1864 par l'horticulteur lyonnais M. Lagrange, en hommage au sénateur Claude-Marius Vaïsse qui décède subitement cette année-là[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette poire est créée en 1864 par l'horticulteur lyonnais M. Lagrange, en hommage au sénateur Claude-Marius Vaïsse qui décède subitement cette année-là.
 </t>
         </is>
       </c>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Poire_S%C3%A9nateur_Va%C3%AFsse</t>
+          <t>Poire_Sénateur_Vaïsse</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,13 +589,15 @@
           <t>Arbre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bois est peu fort.
 Les rameaux assez nombreux et étalés, de grosseur et de longueur moyennes, à peine géniculés, brun clair orangé, finement et abondamment ponctués, aux coussinets aplatis.
 Les yeux sont éloignés du bois, ovoïdes, volumineux, à écailles mal soudées.
-Ovales ou elliptiques, les feuilles sont légèrement mais régulièrement dentées, avec un pétiole court et assez gros[1].
-L'arbre réussit mieux greffé sur franc que sur cognassier, même si les pyramides sont encore faibles[1].
+Ovales ou elliptiques, les feuilles sont légèrement mais régulièrement dentées, avec un pétiole court et assez gros.
+L'arbre réussit mieux greffé sur franc que sur cognassier, même si les pyramides sont encore faibles.
 </t>
         </is>
       </c>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Poire_S%C3%A9nateur_Va%C3%AFsse</t>
+          <t>Poire_Sénateur_Vaïsse</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,9 +626,11 @@
           <t>Productivité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet arbre se révèle d'une grande fertilité[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet arbre se révèle d'une grande fertilité.
 </t>
         </is>
       </c>
@@ -621,7 +641,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Poire_S%C3%A9nateur_Va%C3%AFsse</t>
+          <t>Poire_Sénateur_Vaïsse</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -639,9 +659,11 @@
           <t>Fruit</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fruit à peau jaune-orange, ponctuée et mouchetée de gris, à chair blanchâtre et juteuse. Le cœur contient parfois de nombreuses granulations[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fruit à peau jaune-orange, ponctuée et mouchetée de gris, à chair blanchâtre et juteuse. Le cœur contient parfois de nombreuses granulations.
 </t>
         </is>
       </c>
